--- a/tp4/Mediciones.xlsx
+++ b/tp4/Mediciones.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>f</t>
   </si>
@@ -53,11 +53,17 @@
   <si>
     <t>R3</t>
   </si>
+  <si>
+    <t>w</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +413,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,13 +423,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -435,19 +442,66 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>522</v>
+      </c>
+      <c r="C2">
+        <f>1.2*10^-9*B2*1560*1000</f>
+        <v>0.97718399999999983</v>
+      </c>
+      <c r="D2">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="F2">
+        <f>ABS(C2-D2)/D2</f>
+        <v>1.8694516971279562E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="0">1.2*10^-9*B3*1560*1000</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.4345</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">ABS(C3-D3)/D3</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1905</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2.8809999999999998</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -455,40 +509,143 @@
       <c r="A6">
         <v>10</v>
       </c>
+      <c r="B6">
+        <v>527</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.98654399999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.9123657046555668E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.4879999999999999E-3</v>
+      </c>
+      <c r="D7">
+        <v>0.43240000000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.98268270120259016</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
+      <c r="B8">
+        <v>1242</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.3250239999999995</v>
+      </c>
+      <c r="D8">
+        <v>1.891</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.22952088841882576</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2.855</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
+      <c r="B10">
+        <v>532</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.9959039999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5.6437891163678706E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
+      <c r="B11">
+        <v>239</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.44740799999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3.7588126159554598E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2.835</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,92 +655,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0C36F3-F3DD-49C5-A68D-720A1FD253E1}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>2*PI()*A2*1000</f>
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="C2">
+        <v>202</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1/(1.2*10^-9*B2*C2)</f>
+        <v>656.57979823389167</v>
+      </c>
+      <c r="E2">
+        <v>6.4</v>
+      </c>
+      <c r="G2">
+        <f>ABS(D2-E2)/E2</f>
+        <v>101.59059347404558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f t="shared" ref="B3:B13" si="0">2*PI()*A3*1000</f>
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="D3" s="1" t="e">
+        <f t="shared" ref="D3:D13" si="1">1/(1.2*10^-9*B3*C3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3">
+        <v>5.9</v>
+      </c>
+      <c r="G3" t="e">
+        <f t="shared" ref="G3:G13" si="2">ABS(D3-E3)/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="D4" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4">
+        <v>6.4</v>
+      </c>
+      <c r="G4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="D5" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5">
+        <v>6.4</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>62831.853071795864</v>
+      </c>
+      <c r="C6">
+        <v>198</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>66.98440365820511</v>
+      </c>
+      <c r="E6">
+        <v>52.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.26864400867812716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>62831.853071795864</v>
+      </c>
+      <c r="C7">
+        <v>217</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>61.119409789514336</v>
+      </c>
+      <c r="E7">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.19841979979439875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>62831.853071795864</v>
+      </c>
+      <c r="C8">
+        <v>198</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>66.98440365820511</v>
+      </c>
+      <c r="E8">
+        <v>52.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.27589340301343068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>62831.853071795864</v>
+      </c>
+      <c r="D9" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9">
+        <v>52.7</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>628318.5307179587</v>
+      </c>
+      <c r="C10">
+        <v>198</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6984403658205105</v>
+      </c>
+      <c r="E10">
+        <v>85.4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.92156393014261695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>628318.5307179587</v>
+      </c>
+      <c r="D11" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>628318.5307179587</v>
+      </c>
+      <c r="D12" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12">
+        <v>85.5</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>628318.5307179587</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13">
+        <v>89.5</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
